--- a/Method/kaisetu.xlsx
+++ b/Method/kaisetu.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\anaconda3\PythonAI\KDP\Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CA37CD-7E90-41EA-A408-FDAC7F739FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C914D-D9AA-4002-A250-E63A82D0EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1800" windowWidth="16935" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2040" windowWidth="13965" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="スマート関連" sheetId="2" r:id="rId2"/>
+    <sheet name="openaiとpython" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +26,534 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+  <si>
+    <t>キスト埋め込みモデル</t>
+  </si>
+  <si>
+    <t>1. text-embedding-3-large</t>
+  </si>
+  <si>
+    <r>
+      <t>次元数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：3072</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大トークン数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：8191</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：高度なテキスト埋め込みタスク向け</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>価格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1Mトークンあたり0.13ドル</t>
+    </r>
+  </si>
+  <si>
+    <t>2. text-embedding-3-small</t>
+  </si>
+  <si>
+    <r>
+      <t>次元数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1536</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：一般的なテキスト埋め込みタスク向け</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>価格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1Mトークンあたり0.02ドル</t>
+    </r>
+  </si>
+  <si>
+    <t>IoT の具体例</t>
+  </si>
+  <si>
+    <t>分野</t>
+  </si>
+  <si>
+    <t>IoT の活用例</t>
+  </si>
+  <si>
+    <t>スマートホーム</t>
+  </si>
+  <si>
+    <t>スマートスピーカー（Alexa、Google Home）、スマート冷蔵庫、IoTエアコン</t>
+  </si>
+  <si>
+    <t>ヘルスケア</t>
+  </si>
+  <si>
+    <t>スマートウォッチ（Apple Watch）、心拍モニター、血糖値センサー</t>
+  </si>
+  <si>
+    <t>産業・工場（スマートファクトリー）</t>
+  </si>
+  <si>
+    <t>工場の機械の遠隔監視、予知保全（故障を予測してメンテナンス）</t>
+  </si>
+  <si>
+    <t>農業（スマート農業）</t>
+  </si>
+  <si>
+    <t>温度・湿度センサーで作物を最適管理、自動散水システム</t>
+  </si>
+  <si>
+    <t>物流・交通</t>
+  </si>
+  <si>
+    <t>スマート物流（GPS付きトラック管理）、スマート信号機</t>
+  </si>
+  <si>
+    <t>小売・マーケティング</t>
+  </si>
+  <si>
+    <t>AIカメラで顧客行動を分析、スマートレジ</t>
+  </si>
+  <si>
+    <t>GPT-3 モデルファミリー</t>
+  </si>
+  <si>
+    <r>
+      <t>GPT-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、OpenAI が開発した大規模な言語モデルで、以下のようなバリエーションがあります。</t>
+    </r>
+  </si>
+  <si>
+    <t>モデル名</t>
+  </si>
+  <si>
+    <t>パラメータ数</t>
+  </si>
+  <si>
+    <t>API 名称</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>125M</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>基本的なタスク向け</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>350M</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>シンプルなタスクに対応、最も高速で低コスト</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>760M</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>1.3B</t>
+  </si>
+  <si>
+    <t>babbage</t>
+  </si>
+  <si>
+    <t>直接的なタスクに対応、高速で低コスト</t>
+  </si>
+  <si>
+    <t>2.7B</t>
+  </si>
+  <si>
+    <t>6.7B</t>
+  </si>
+  <si>
+    <t>curie</t>
+  </si>
+  <si>
+    <r>
+      <t>高度なタスクに対応、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>davinci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> より高速で低コスト</t>
+    </r>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>175B</t>
+  </si>
+  <si>
+    <t>davinci</t>
+  </si>
+  <si>
+    <t>最も高性能な GPT-3 モデル、他のモデルより高品質な出力が可能</t>
+  </si>
+  <si>
+    <t>注: パラメータ数はモデルの規模を示し、一般的にパラメータ数が多いほどモデルの性能が高いとされています。</t>
+  </si>
+  <si>
+    <t>🔹 GPT-3.5 モデルファミリー</t>
+  </si>
+  <si>
+    <r>
+      <t>GPT-3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、GPT-3 の改良版で、以下のモデルが含まれます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-davinci-002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 教師あり微調整でトレーニングされたモデル。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-davinci-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>curie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> や </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>babbage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> より高品質で、長い出力や一貫した指示追従が可能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpt-3.5-turbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: チャットに最適化され、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>text-davinci-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の1/10のコストで高性能を発揮。</t>
+    </r>
+  </si>
+  <si>
+    <t>注: GPT-3.5 モデルの具体的なパラメータ数は公開されていません。</t>
+  </si>
+  <si>
+    <t>🔹 OpenAI o1 と o3 モデル</t>
+  </si>
+  <si>
+    <r>
+      <t>OpenAI o1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> と </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、より高度な推論能力を持つモデルとして開発されました。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2024年12月にリリースされ、複雑なタスクや科学、プログラミング分野で優れた性能を発揮します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2024年12月20日に発表され、o1 の後継モデルとして、段階的な論理推論を必要とする質問に対して追加の検討時間を割くよう設計されています。</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 最新モデル: GPT-4.5</t>
+  </si>
+  <si>
+    <r>
+      <t>GPT-4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、OpenAI が最近発表した最新の AI 言語モデルで、より人間らしい対話を目指して設計されています。未監督学習の改善により、パターン認識や創造的な洞察の生成能力が向上しています。ただし、コストは以前のモデルより高く設定されています。</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenAIのPythonライブラリは、2023年11月6日にバージョン1.0.0がリリースされ、大幅な改訂が行われました。</t>
+  </si>
+  <si>
+    <t>例えば：</t>
+  </si>
+  <si>
+    <t>OpenAI API エンドポイント</t>
+  </si>
+  <si>
+    <t>Python SDKのメソッド名</t>
+  </si>
+  <si>
+    <t>POST /v1/images/generations</t>
+  </si>
+  <si>
+    <t>client.images.generate()</t>
+  </si>
+  <si>
+    <t>POST /v1/images/edits</t>
+  </si>
+  <si>
+    <t>client.images.edit()</t>
+  </si>
+  <si>
+    <t>POST /v1/images/variations</t>
+  </si>
+  <si>
+    <t>client.images.variations()</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +570,39 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -69,9 +629,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -352,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -363,7 +946,609 @@
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:3" ht="18.75">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" ht="18">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="18.75">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="3:3" ht="18.75">
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="18.75">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="18.75">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="18.75">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="18.75">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="3:3" ht="18">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="18.75">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="3:3" ht="18.75">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="18.75">
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="18.75">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="18.75">
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524E9C3-5F02-4872-83CD-78BFC8D73B31}">
+  <dimension ref="C1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="18.75">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" ht="18.75">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="3:6" ht="18.75">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="18.75">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="18">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="18">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="18">
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="18">
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="18.75">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="18">
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="18.75">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="3:6" ht="18.75">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="3:6" ht="18.75">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="3:6" ht="18.75">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="3:6" ht="36">
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="56.25">
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="112.5">
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18.75">
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="93.75">
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18.75">
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="112.5">
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18.75">
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="150">
+      <c r="C24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="18.75">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="3:6" ht="18.75">
+      <c r="C26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="3:6" ht="18.75">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="3:6" ht="18.75">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="3:6" ht="18.75">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="3:6" ht="30">
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="3:6" ht="18.75">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="3:6" ht="18.75">
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="3:6" ht="18.75">
+      <c r="C33" s="3"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="3:6" ht="18.75">
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="3:6" ht="18.75">
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="3:6" ht="18.75">
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="3:6" ht="18.75">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="3:6" ht="18.75">
+      <c r="C38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="3:6" ht="18.75">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="3:6" ht="18.75">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="3:6" ht="18.75">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="3:6" ht="30">
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="3:6" ht="18.75">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="3:6" ht="18.75">
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="3:6" ht="18.75">
+      <c r="C45" s="3"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="3:6" ht="18.75">
+      <c r="C46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="3:6" ht="18.75">
+      <c r="C47" s="3"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="3:6" ht="18.75">
+      <c r="C48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="3:6" ht="18.75">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="3:6" ht="18.75">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="3:6" ht="18.75">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="3:6" ht="30">
+      <c r="C52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="3:6" ht="18.75">
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="3:6" ht="18.75">
+      <c r="C54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="57" spans="3:6" ht="18.75">
+      <c r="C57" s="2"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="3:6" ht="18.75">
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="3:6" ht="18">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65262E63-1BB0-403D-9CDD-C299696410FE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.25">
+      <c r="A4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38.25">
+      <c r="A5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38.25">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Method/kaisetu.xlsx
+++ b/Method/kaisetu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\anaconda3\PythonAI\KDP\Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C914D-D9AA-4002-A250-E63A82D0EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9523C9-8042-4200-8E51-F9EF9902CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2040" windowWidth="13965" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2205" windowWidth="13965" windowHeight="13995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="スマート関連" sheetId="2" r:id="rId2"/>
     <sheet name="openaiとpython" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>キスト埋め込みモデル</t>
   </si>
@@ -547,13 +548,41 @@
   </si>
   <si>
     <t>client.images.variations()</t>
+  </si>
+  <si>
+    <t>~/.openai/config.json</t>
+  </si>
+  <si>
+    <r>
+      <t>API KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>保存場所</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~/.openai/config.json</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +636,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1021,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524E9C3-5F02-4872-83CD-78BFC8D73B31}">
   <dimension ref="C1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -1499,53 +1534,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65262E63-1BB0-403D-9CDD-C299696410FE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD35E6-09A5-4823-A25F-1F659C735B1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
